--- a/py/app/class.xlsx
+++ b/py/app/class.xlsx
@@ -363,175 +363,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>171308</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161331</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>171328</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171302</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>171312</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>171347</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>161341</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>171322</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>171351</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>171328</t>
+          <t>171335</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>171315</t>
+          <t>171342</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>鵜沼慶伍</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>麓光姫（休学）</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>田仲風花</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>新城千尋</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>大城祐樹</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>村田芳光</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>山城徹大</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>崎間圭</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>山入端晃季</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>田仲風花</t>
+          <t>バシュロアレキサンダーレイ</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>キー昂</t>
+          <t>松本海生</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>171343</t>
+          <t>171310</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>171345</t>
+          <t>171304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>171337</t>
+          <t>171320</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>171330</t>
+          <t>171316</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>161331</t>
+          <t>171346</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>171340</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>171303</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>161302</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>松元優斗</t>
+          <t>榎恵礼奈</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>宮川リア</t>
+          <t>伊佐龍拓</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>比嘉樹</t>
+          <t>慶田神乃恩</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>名嘉琉星</t>
+          <t>岸本明莉</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>麓光姫（休学）</t>
+          <t>宮里晃輔</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>星村勇志</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>伊藝巧也</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>新垣翔平</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>171327</t>
+          <t>171323</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>171302</t>
+          <t>161341</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>171323</t>
+          <t>171326</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>171305</t>
+          <t>171319</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>171338</t>
+          <t>171330</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -541,34 +541,34 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>171309</t>
+          <t>171344</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>髙嶺こころ</t>
+          <t>櫻井朋</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>新城千尋</t>
+          <t>山城徹大</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>櫻井朋</t>
+          <t>平良優人</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>稲嶺百華</t>
+          <t>金城伶奈</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>比嘉風</t>
+          <t>名嘉琉星</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -578,187 +578,187 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>宇根小夏</t>
+          <t>滿名優希</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>171344</t>
+          <t>171321</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>171316</t>
+          <t>171307</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>171335</t>
+          <t>171347</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>171318</t>
+          <t>171352</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>171329</t>
+          <t>171327</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>171333</t>
+          <t>171341</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>171326</t>
+          <t>171351</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>滿名優希</t>
+          <t>幸地輝空</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>岸本明莉</t>
+          <t>上原茉央</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>バシュロアレキサンダーレイ</t>
+          <t>村田芳光</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>金城宏季</t>
+          <t>與那嶺維杏</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>當間崚央</t>
+          <t>髙嶺こころ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>根路銘紳</t>
+          <t>前里洸太</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>平良優人</t>
+          <t>山入端晃季</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>171321</t>
+          <t>171306</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>171336</t>
+          <t>171317</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>171305</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>171345</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>171333</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>171324</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>171342</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>171314</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>171332</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>171350</t>
+          <t>171348</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>幸地輝空</t>
+          <t>入江祐毅</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>花城和奏</t>
+          <t>金城咲良</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>稲嶺百華</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>宮川リア</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>根路銘紳</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>下地涼太</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>松本海生</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>川滿唯希</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>西悠之介</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>山城菜香</t>
+          <t>諸岡香音</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>171304</t>
+          <t>171338</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>171341</t>
+          <t>171325</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>171311</t>
+          <t>161302</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>171339</t>
+          <t>171314</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>171317</t>
+          <t>171337</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>171301</t>
+          <t>171309</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -770,32 +770,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>伊佐龍拓</t>
+          <t>比嘉風</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>前里洸太</t>
+          <t>新垣良秋</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大城万由花</t>
+          <t>新垣翔平</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>辺土名一磨</t>
+          <t>川滿唯希</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>金城咲良</t>
+          <t>比嘉樹</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>安室概</t>
+          <t>宇根小夏</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -807,106 +807,106 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>171352</t>
+          <t>171339</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>171349</t>
+          <t>171318</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>171325</t>
+          <t>171315</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>171310</t>
+          <t>171350</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>171334</t>
+          <t>171343</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>171308</t>
+          <t>171332</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>171340</t>
+          <t>171301</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>與那嶺維杏</t>
+          <t>辺土名一磨</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山口鈴愛</t>
+          <t>金城宏季</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新垣良秋</t>
+          <t>キー昂</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>榎恵礼奈</t>
+          <t>山城菜香</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>野原竜晟</t>
+          <t>松元優斗</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>鵜沼慶伍</t>
+          <t>西悠之介</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>星村勇志</t>
+          <t>安室概</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>171346</t>
+          <t>171334</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>171319</t>
+          <t>171336</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>171306</t>
+          <t>171329</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>171348</t>
+          <t>171349</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>171320</t>
+          <t>171322</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>171307</t>
+          <t>171311</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -914,32 +914,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>宮里晃輔</t>
+          <t>野原竜晟</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>金城伶奈</t>
+          <t>花城和奏</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>入江祐毅</t>
+          <t>當間崚央</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>諸岡香音</t>
+          <t>山口鈴愛</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>慶田神乃恩</t>
+          <t>崎間圭</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>上原茉央</t>
+          <t>大城万由花</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
